--- a/public/template-import-pegawai.xlsx
+++ b/public/template-import-pegawai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A32B8-A008-4FED-A96B-91674DB8ED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B63AA2-BF4C-4E9E-931A-E3D1C4089442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ASUS</author>
+  </authors>
+  <commentList>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7377730C-F8D2-4358-B5E7-9D4092DE24BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+untuk kolom ini sesuai isi dengan kode pada menu Status Pegawai</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -365,15 +399,18 @@
   <si>
     <t>17/02/1985</t>
   </si>
+  <si>
+    <t>Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +443,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -502,20 +552,20 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -732,11 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -809,7 +859,9 @@
       <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
@@ -867,7 +919,9 @@
       <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -925,7 +979,9 @@
       <c r="P3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -983,7 +1039,9 @@
       <c r="P4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1041,7 +1099,9 @@
       <c r="P5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="8">
+        <v>2</v>
+      </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -1099,7 +1159,9 @@
       <c r="P6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -1157,7 +1219,9 @@
       <c r="P7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="8">
+        <v>2</v>
+      </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1215,7 +1279,9 @@
       <c r="P8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -1273,7 +1339,9 @@
       <c r="P9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -1331,7 +1399,9 @@
       <c r="P10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -1389,7 +1459,9 @@
       <c r="P11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="8">
+        <v>2</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -1447,7 +1519,9 @@
       <c r="P12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -1505,7 +1579,9 @@
       <c r="P13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8">
+        <v>2</v>
+      </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -31102,5 +31178,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>